--- a/tut06/output/2001EE61.xlsx
+++ b/tut06/output/2001EE61.xlsx
@@ -506,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
